--- a/src/output/3-filter/auto/all-no_filtered.xlsx
+++ b/src/output/3-filter/auto/all-no_filtered.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>system security,privacy,operate system security,security</t>
+          <t>system security,privacy,nothing</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>software performance,system security,compute platform,software,property,information system,distribute system security,privacy,it engineer,software organization,information system application,extra-functional property,security</t>
+          <t>information system,compute platform,software performance,extra-functional property,information system application,it engineer,privacy,system security,software organization,property,nothing</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>application security,software,software security engineer,privacy,security</t>
+          <t>software security,application security,privacy,nothing</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>taint analysis,smart contract,overflow vulnerability,ethereum</t>
+          <t>overflow vulnerability,taint analysis,contract,ethereum</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>application security,system security,software,software security engineer,distribute system security,privacy,security</t>
+          <t>software security,application security,privacy,system security,nothing</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>system security,network security,network,network performance evaluation,network simulation,distribute system security,privacy,security</t>
+          <t>network simulation,network security,network performance evaluation,privacy,system security,network,nothing</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>system security,storage security,distribute system security,database,privacy,security</t>
+          <t>storage security,privacy,system security,nothing,database</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>web,world,web mine,intrusion/anomaly detection,application security,software,malware mitigation,security,web application security,privacy,wide,information system</t>
+          <t>information system,intrusion/anomaly detection,malware mitigation,world,application security,web application security,web,wide,privacy,web mine,nothing</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>distribute system security,system security,privacy,security</t>
+          <t>system security,privacy,nothing</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>system security,privacy,security</t>
+          <t>system security,privacy,nothing</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>application security,professional topic,online bank,software,apply compute,electronic commerce,electronic fund transfer,privacy policy,privacy,human and societal aspect of security and privacy,domain-specific security and privacy architecture,compute,technology policy,social,secure online transaction,security</t>
+          <t>compute,electronic fund transfer,privacy policy,technology policy,application security,apply compute,online bank,secure online transaction,domain-specific security and privacy architecture,privacy,social,professional topic,nothing,electronic commerce</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>apply compute,enterprise compute</t>
+          <t>enterprise compute,apply compute</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>authentication,multi-factor authentication,privacy,security service,security</t>
+          <t>security service,multi-factor authentication,authentication,privacy,nothing</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>program,program language usability,security</t>
+          <t>program,program language usability,nothing</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>application security,tool,software,software security engineer,software notation,privacy,it engineer,software library,repository,security</t>
+          <t>software security,application security,software notation,tool,it engineer,privacy,software library,repository,nothing</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>data dissemination,blockchain,simulation,distribute ledger technology,security</t>
+          <t>simulation,data dissemination,nothing</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>professional topic,network security,security,privacy policy,privacy,compute,technology policy,social,human and societal aspect of security and privacy</t>
+          <t>compute,privacy policy,technology policy,network security,privacy,social,nothing,professional topic</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>software creation,application security,software verification,software,software security engineer,management,privacy,it engineer,software test,debug,validation,software defect analysis,security</t>
+          <t>software creation,software security,software verification,application security,debug,it engineer,privacy,management,software test,software defect analysis,validation,nothing</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>theory of computation,analysis of algorithm,design</t>
+          <t>analysis of algorithm,theory of computation,design</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>application security,network security,network architecture,software,network,privacy,security protocol,security</t>
+          <t>network security,application security,privacy,network architecture,security protocol,network,nothing</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>application security,system security,software,privacy,domain-specific security and privacy architecture,security</t>
+          <t>application security,domain-specific security and privacy architecture,privacy,system security,nothing</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>distribute system security,system security,privacy,security</t>
+          <t>system security,privacy,nothing</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>distribute architecture,network security,network,denial-of-service attack,architecture,computer system organization,network property,peer-to-peer architecture</t>
+          <t>computer system organization,network security,network property,P2P,distribute architecture,denial-of-service attack,network,nothing</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>time-based model,mathematical model,bitcoin,attacker advantage,double-spend attack</t>
+          <t>double-spend attack,attacker advantage,time-based model,mathematical model,bitcoin</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>system security,symmetric cryptography,hash function,distribute system security,privacy,message authentication code,cryptography,security</t>
+          <t>cryptography,message authentication code,privacy,system security,hash,nothing</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>system security,privacy,operate system security,security</t>
+          <t>system security,privacy,nothing</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>blockchain,distribute denial-of-service ,cooperative defense,security</t>
+          <t>cooperative defense,distribute denial-of-service ,nothing</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>mathematics of compute,statistic,probability,network,privacy,cryptography,network protocol,security</t>
+          <t>cryptography,probability,network protocol,statistic,privacy,mathematics of compute,network,nothing</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>system security,security,economics of security,distribute system security,privacy,human and societal aspect of security and privacy</t>
+          <t>system security,economics of security,privacy,nothing</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>security patch,empirical study,smart contract,solidity</t>
+          <t>solidity,security patch,contract,empirical study</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>logic,security in hardware,application security,system security,software,theory of security,privacy,verification,formal method,security</t>
+          <t>theory of security,formal approach,application security,logic,privacy,security in hardware,system security,nothing</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>distribute architecture,network reliability,network,architecture,computer system organization,network property,peer-to-peer architecture</t>
+          <t>network reliability,computer system organization,network property,P2P,distribute architecture,network,nothing</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>distribute architecture,network security,network,wireless security,privacy-preserving protocol,mobile,privacy,architecture,computer system organization,security service,network property,security protocol,peer-to-peer architecture,security</t>
+          <t>privacy-preserving protocol,security service,computer system organization,network security,network property,P2P,wireless security,mobile,privacy,distribute architecture,security protocol,network,nothing</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>digital cash,apply compute,electronic commerce,economics of security,privacy,human and societal aspect of security and privacy,security</t>
+          <t>digital cash,apply compute,privacy,economics of security,nothing,electronic commerce</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>system security,security,economics of security,distribute system security,privacy,human and societal aspect of security and privacy</t>
+          <t>system security,economics of security,privacy,nothing</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>key management,privacy,cryptography,security</t>
+          <t>cryptography,key management,privacy,nothing</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>system security,network security,network,privacy,network property,security</t>
+          <t>network security,network property,privacy,system security,network,nothing</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>system security,general,document type,reference,distribute system security,privacy,general conference proceed,security</t>
+          <t>general conference proceed,general,system security,document type,privacy,reference,nothing</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>management,storage security,database,privacy,human and societal aspect of security and privacy,query of encrypt data,security</t>
+          <t>storage security,query of encrypt data,privacy,management,nothing,database</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>security service,privacy,authorization,security</t>
+          <t>authorization,security service,privacy,nothing</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>logic,application security,software,theory of security,privacy,verification,formal method,security</t>
+          <t>theory of security,formal approach,application security,logic,privacy,nothing</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>application security,system security,software,privacy,domain-specific security and privacy architecture,security</t>
+          <t>application security,domain-specific security and privacy architecture,privacy,system security,nothing</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>system security,security,economics of security,distribute system security,privacy,human and societal aspect of security and privacy</t>
+          <t>system security,economics of security,privacy,nothing</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>block,page strategy,record storage system,information storage system,information system</t>
+          <t>information system,record storage system,block,page strategy,information storage system</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>blockchain,formal verification,security evaluation,formal method,domain specific language</t>
+          <t>security evaluation,formal approach,domain specific language,nothing</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>professional topic,network security,security,privacy policy,privacy,compute,technology policy,social,human and societal aspect of security and privacy</t>
+          <t>compute,privacy policy,technology policy,network security,privacy,social,nothing,professional topic</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>symmetric cryptography,hash function,privacy,message authentication code,cryptography,security</t>
+          <t>cryptography,message authentication code,privacy,hash,nothing</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>application security,software,software security engineer,security,economics of security,privacy,human and societal aspect of security and privacy</t>
+          <t>software security,application security,privacy,economics of security,nothing</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>database,privacy,storage security,security</t>
+          <t>storage security,privacy,nothing,database</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>network reliability,network security,network,privacy,network property,security</t>
+          <t>network reliability,network security,network property,privacy,network,nothing</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>application security,software,compute methodology,software security engineer,learn paradigm,unsupervised learn,privacy,machine learn,supervise learn,anomaly detection,security</t>
+          <t>compute methodology,software security,unsupervised learn,application security,DL/ML,supervise learn,privacy,learn paradigm,nothing,anomaly detection</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>denial-of-service attack,network property,network,network security</t>
+          <t>denial-of-service attack,network security,network property,network</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>pseudonymity,computational complexity,privacy-preserving protocol,untraceability,cryptographic protocol,privacy,theory of computation,security service,anonymity,cryptography,security</t>
+          <t>cryptography,privacy-preserving protocol,security service,cryptographic protocol,pseudonymity,theory of computation,anonymity,privacy,untraceability,computational complexity,nothing</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>hyperledger fabric,post-quantum cryptography,blockchain</t>
+          <t>post-quantum cryptography,nothing,hyperledger fabric</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>blockchain,security,consensus algorithm,internet-of-things,privacy,smart contract,distribute ledger technology</t>
+          <t>contract,IoT,consensus,privacy,nothing</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>software bug,internet of thing,general-purpose model,fault detection,distribute compute,computation,isolation,interaction,fault tolerance,algorithm,edge compute,autonomous robot</t>
+          <t>fault tolerance,interaction,fault detection,IoT,computation,distribute compute,edge compute,general-purpose model,software bug,isolation,nothing,autonomous robot</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>genesis,bitcoin,byzantine fault tolerance,digital linear tape,stateless protocol</t>
+          <t>genesis,BFT,stateless protocol,digital linear tape,bitcoin</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>principle of abstraction,first-order predicate,first-order logic,requirement,verification,validation,automate theorem prove,transfer function,rodin tool,type system,domain-specific language,algorithm,smart contract,b-method,ethereum,formal method,simulation,refinement ,solidity,honeypot ,formal verification,immutable object,program language</t>
+          <t>immutable object,formal approach,domain-specific language,refinement ,first-order logic,principle of abstraction,ethereum,transfer function,type system,automate theorem prove,b-method,solidity,validation,nothing,contract,honeypot ,program language,simulation,rodin tool,first-order predicate</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>selection algorithm,adversary ,malware,direct acyclic graph,iota,cryptocurrency,jot,sample ,immutable object,double-spending,numerical analysis,markov chain</t>
+          <t>cryptocurrency,immutable object,numerical analysis,malware,direct acyclic graph,adversary ,sample ,selection algorithm,IoTa,double-spending,JoT,markov chain</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>commitment scheme,overhead ,throughput,scalability,malware,computation,recovery procedure,shard ,amortize analysis</t>
+          <t>shard ,malware,amortize analysis,overhead ,computation,throughput,recovery procedure,commitment scheme,scalability</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>naruto shippuden: clash of ninja revolution 3,requirement,privacy,computation,dlt,interaction,encryption,personally identifiable information,information sensitivity,holographic principle,enterprise system,business process,smart contract,data integrity,scalability,enterprise integration,business logic,spectral leakage,confidentiality,entity</t>
+          <t>naruto shippuden: clash of ninja revolution 3,interaction,business process,personally identifiable information,privacy,confidentiality,entity,computation,enterprise integration,enterprise system,nothing,data integrity,contract,information sensitivity,spectral leakage,holographic principle,scalability,Encryption,business logic</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>pervasive informatics,tamper resistance,differential privacy,cryptographic hash function,authorization,bitcoin,trust third party,peer-to-peer</t>
+          <t>P2P,authorization,tamper resistance,pervasive informatics,bitcoin,differential privacy,cryptographic hash function,trust third party</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>centralize compute,quantum information,distribute database,computer,bitcoin,ethereum,quantum compute,dlt,quantum entanglement,temporal logic,quantum algorithm</t>
+          <t>computer,temporal logic,quantum entanglement,quantum information,quantum compute,quantum algorithm,centralize compute,bitcoin,ethereum,nothing,database</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>sybil attack,byzantine fault tolerance,web of trust,proof-of-work system,value ,peer-to-peer,social network</t>
+          <t>sybil attack,web of trust,P2P,BFT,proof-of-work system,value ,social network</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>selection algorithm,procedural generation,direct acyclic graph,iota,jot,markov chain monte carlo,immutable object,simulation,mathematics</t>
+          <t>immutable object,simulation,direct acyclic graph,mathematics,procedural generation,selection algorithm,IoTa,JoT,markov chain monte carlo</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>contract agreement,distribute database,bitcoin,cryptocurrency,hash function,smart contract,antivirus software,brute-force search,protocol documentation,marijuana abuse,cryptography,brute-force attack,digital signature</t>
+          <t>cryptography,cryptocurrency,contract agreement,contract,brute-force attack,brute-force search,bitcoin,antivirus software,protocol documentation,marijuana abuse,hash,digital signature,database</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>global network,requirement,bitcoin,distribute compute,essence</t>
+          <t>essence,distribute compute,global network,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>distribute transaction,internet of thing,bitcoin,cryptocurrency,computation,algorithm</t>
+          <t>cryptocurrency,distribute transaction,IoT,computation,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>cryptonote,ring signature,key derivation function,requirement,authorization,stealth,privacy,antivirus software,public-key cryptography,type signature,digital signature</t>
+          <t>cryptography,cryptonote,stealth,authorization,privacy,key derivation function,antivirus software,digital signature,nothing</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>business logic,traction teampage,requirement,formal verification,bitcoin,ethereum,virtual machine,distribute compute,smart contract,lock ,computer data storage,computer performance,software portability</t>
+          <t>formal approach,contract,lock ,distribute compute,virtual machine,computer performance,bitcoin,ethereum,computer data storage,software portability,traction teampage,nothing,business logic</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">replay attack,double-spending,shard ,asynchrony </t>
+          <t>replay attack,shard ,asynchrony ,double-spending</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>omness,internet of thing,bitcoin,home automation,r,machine learn,public-key cryptography,population,algorithm,sensor</t>
+          <t>cryptography,omness,population,home automation,DL/ML,IoT,bitcoin,nothing,sensor</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rsa ,ring signature,modulus robot,modulus of continuity,digital signature</t>
+          <t xml:space="preserve">modulus robot,modulus of continuity,digital signature,rsa </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>program paradigm,e-commerce,tablet computer,ephrin type-b receptor 1,time complexity,exponential,smart device,cryptocurrency,solution,smartphone,certification,internet of thing,bitcoin,exploit ,tablet dosage form,synergy,smart city,real-time clock,botnet,entity,immutable object,health fraud,human,sensor</t>
+          <t>botnet,immutable object,smartphone,exponential,tablet dosage form,synergy,exploit ,sensor,real-time clock,certification,smart device,smart city,entity,program paradigm,IoT,tablet computer,cryptocurrency,solution,ephrin type-b receptor 1,time complexity,e-commerce,health fraud,human,bitcoin</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>encryption,identifier,bitcoin,cryptocurrency,shamir's secret share,zero-knowledge proof,computer data storage,immutable object,cryptography</t>
+          <t>cryptography,cryptocurrency,immutable object,shamir's secret share,Encryption,identifier,bitcoin,computer data storage,ZKP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>mortar method,smart contract,moral hazard,programmer,unintended consequence</t>
+          <t>contract,moral hazard,unintended consequence,programmer,mortar method</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>node ,bitcoin,cryptocurrency,computational resource,double-spending,algorithm</t>
+          <t>cryptocurrency,computational resource,node ,double-spending,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>dust attack,blockchain,bitcoin,cryptocurrency,privacy,threat,security</t>
+          <t>cryptocurrency,dust attack,privacy,bitcoin,threat,nothing</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>security analysis,peer-to-peer network,block propagation,bitcoin,countermeasure,eclipse attack</t>
+          <t>security analysis,block propagation,peer-to-peer network,bitcoin,countermeasure,eclipse attack</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>digital money,decentralize payment system,p2p transaction,bitcoin security,digital wallet,bitcoin,cryptocurrency,cybersecurity,bitcoin cyberattacks</t>
+          <t>cryptocurrency,p2p transaction,decentralize payment system,bitcoin security,digital money,cyber security,digital wallet,bitcoin cyberattacks,bitcoin</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>distribute system,internet of thing,blockchain,bitcoin,security</t>
+          <t>IoT,distribute system,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>blockchain,machine learn ,bitcoin,anomaly detection,security</t>
+          <t>machine learn ,bitcoin,nothing,anomaly detection</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>arbitration mechanism,attack,bitcoin,conflict check protocol,conflict,security</t>
+          <t>arbitration mechanism,conflict,conflict check protocol,attack,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>miner,block withhold,decentralize,mine process,bitcoin,double spend,anonymity,proof of work,51% attack</t>
+          <t>block withhold,decentralize,mine process,51% attack,anonymity,miner,bitcoin,PoW,double spending</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>attack,bitcoin,cryptocurrency exchange,cyber threat intelligence,cyber security</t>
+          <t>cryptocurrency exchange,cyber security,cyber threat intelligence,attack,bitcoin</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>blockchain,mine,double spend attack,51% attack</t>
+          <t>mine,51% attack,double spending,nothing</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>light client,light ethereum subprotocol,blockchain,ethereum,security</t>
+          <t>light client,light ethereum subprotocol,nothing,ethereum</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>blockchain,mine,double spend attack,51% attack</t>
+          <t>mine,51% attack,double spending,nothing</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>attack,blockchain,bitcoin,ethereum,dlt,hyper- ledger,security</t>
+          <t>attack,bitcoin,ethereum,hyper- ledger,nothing</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>software defect,vulnerability,blockchain,security,pow,governance,pos,cryptography,hack</t>
+          <t>cryptography,software defect,PoS,hack,PoW,governance,nothing</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>blochchain,secure element,bitcoin,security</t>
+          <t>nothing,bitcoin,secure element,blochchain</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vulnerability,peer-2-peer,blockchain,bitcoin,eclipse attack,security</t>
+          <t>P2P,bitcoin,nothing,eclipse attack</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>private key storage,markov model,blockchain,attack surface,channel exfiltration,air gap storage,key extraction,air gap wallet</t>
+          <t>markov model,key extraction,attack surface,air gap wallet,channel exfiltration,private key storage,air gap storage,nothing</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>blockchain,proof of work ,bitcoin,majority attack</t>
+          <t xml:space="preserve">majority attack,bitcoin,nothing,proof of work </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,dust attack,anti-dust</t>
+          <t>anti-dust,dust attack,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>blockchain,computer security,algorithmic game theory,network,machine learn,majority attack,anomaly detection</t>
+          <t>algorithmic game theory,DL/ML,majority attack,network,computer security,nothing,anomaly detection</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>defence,blockchain,ethereum,geth,vulnerability analysis</t>
+          <t>geth,vulnerability analysis,ethereum,defence,nothing</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>double-spending,sybil attack,bitcoin</t>
+          <t>sybil attack,double-spending,bitcoin</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vulnerability,blockchain,bitcoin,ethereum,cybersecurity,threat,smart contract,risk</t>
+          <t>contract,risk,cyber security,bitcoin,ethereum,threat,nothing</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>blockchain,countermeasure,bitcoin,objectionable content,security</t>
+          <t>countermeasure,bitcoin,nothing,objectionable content</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,database security,threat,ledger</t>
+          <t>ledger,database security,bitcoin,threat,nothing</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>auction,blockchain,privacy,hybrid,security</t>
+          <t>hybrid,auction,privacy,nothing</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>decentralization,internet of thing,blockchain,bitcoin,cryptocurrency,peer-to-peer,smart contract,survey,security</t>
+          <t>cryptocurrency,contract,decentralization,P2P,IoT,survey,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>blockchain,secure element,trust,security</t>
+          <t>trust,nothing,secure element</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>blockchain,ibc,security practice,tendermint</t>
+          <t>security practice,ibc,tendermint,nothing</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>blockchain,security deposit,contract theory,sharding</t>
+          <t>contract theory,nothing,security deposit,sharding</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>on-off attack,iot,blockchain,distribute trust,security</t>
+          <t>distribute trust,iot,nothing,on-off attack</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>commitment scheme,bitcoin mine,mine pool,selfish miner,block withhold attack</t>
+          <t>commitment scheme,bitcoin mine,selfish miner,mine,block withhold attack</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>cryptographic protocol,distribute ledger,blockchain,security threat</t>
+          <t>cryptographic protocol,threat,distribute ledger,nothing</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>mine,block withhold attack,mine pool,fork after withhold</t>
+          <t>mine,fork after withhold,block withhold attack</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>secure compute,archival science,blockchain,bitcoin,dependable,dependability,trust,security</t>
+          <t>trust,secure compute,archival science,bitcoin,dependable,dependability,nothing</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>blockchain,storage balance,algorithm,security</t>
+          <t>storage balance,nothing</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>internet of thing,blockchain,bitcoin,ethereum,pool mine,coin hop attack</t>
+          <t>coin hop attack,IoT,bitcoin,pool mine,ethereum,nothing</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>uncle block,stubborn mine,ethereum,selfish mine,eclipse attack</t>
+          <t>ethereum,stubborn mine,eclipse attack,mine,uncle block</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>proof of authority,blockchain,internet of thing ,ethereum,privacy,security</t>
+          <t>ethereum,privacy,proof of authority,internet of thing ,nothing</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vulnerability,security threat,threat categorization,2.0,1.0</t>
+          <t>threat,nothing,threat categorization</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>blockchain,transaction system,privacy,distribute ledger technology,security</t>
+          <t>transaction system,privacy,nothing</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>byzantine general problem,delay attack,blockchain,double spend,hash function,partition</t>
+          <t>partition,delay attack,double spending,byzantine general problem,hash,nothing</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>blockchain,vulnerability,e-voting system,risk</t>
+          <t>risk,e-voting system,nothing</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ethereum,man in the middle,security</t>
+          <t>man in the middle,nothing,ethereum</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>taint analysis,smart contract,overflow vulnerability,ethereum</t>
+          <t>overflow vulnerability,taint analysis,contract,ethereum</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>gas consumption,blockchain,security vulnerability,fuzzer,ethereum,vulnerability trigger,software test,smart contract,atomicity violation,fuzzing</t>
+          <t>fuzzing,contract,vulnerability trigger,gas consumption,fuzzer,atomicity violation,ethereum,software test,nothing</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>economics of mine,blockchain,security,bitcoin,mine pool,proof of work ,block withhold attack</t>
+          <t>economics of mine,proof of work ,bitcoin,mine,block withhold attack,nothing</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>blockchain,security,internet of thing</t>
+          <t>IoT,nothing</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>blockchain,security analysis,mine pool,bitcoin</t>
+          <t>mine,security analysis,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>data report,incentive,zksnarks,crowd-sensing,participatory sense,bitcoin,privacy,reward mechanism,blockchain.,security</t>
+          <t>blockchain.,zksnarks,data report,privacy,incentive,reward mechanism,bitcoin,crowd-sensing,participatory sense,nothing</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>sybil attack,blockchain,behavior monitor,digital transaction,security</t>
+          <t>digital transaction,sybil attack,behavior monitor,nothing</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>blockchain,cryptographic attack,membership service provider</t>
+          <t>membership service provider,cryptographic attack,nothing</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>decentralization,mine,reward,gap game,security</t>
+          <t>decentralization,gap game,reward,mine,nothing</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>blockchain,immutability attack,51% attack,security</t>
+          <t>51% attack,immutability attack,nothing</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>blockchain,compromise of the protocol,blockmesh,security</t>
+          <t>compromise of the protocol,nothing,blockmesh</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>blockchain,privacy,security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>blockchain,proof-of-stake,zero-knowledge,privacy,adaptive-security,universal-composability,distributed-ledger</t>
+          <t>distributed-ledger,PoS,privacy,universal-composability,adaptive-security,ZKP,nothing</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>blockchain,secure element,trust,security</t>
+          <t>trust,nothing,secure element</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>intrusion detection,iot,goldfinger attack,blockchain,statistical significance</t>
+          <t>goldfinger attack,iot,statistical significance,intrusion detection,nothing</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>network model,blockchain,consensus security</t>
+          <t>network model,consensus security,nothing</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>vulnerability,security threat,blockchain,security framework,cybersecurity,smart contract,consensus protocol</t>
+          <t>contract,security framework,cyber security,consensus,threat,nothing</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>block mine,cloud compute,blockchain security,vulnerability,block withhold,blockchain,data provenance,distribute ledger,pool mine,proof-of-work</t>
+          <t>cloud compute,block mine,distribute ledger,PoW,data provenance,block withhold,pool mine,blockchain security,nothing</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>p2p,tor,bitcoin,cryptocurrency,anonymity,security</t>
+          <t>cryptocurrency,nothing,P2P,anonymity,bitcoin,tor</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>system architecture,blockchain,security vulnerability,fuzz test,ethereum,smart contract</t>
+          <t>contract,system architecture,fuzz test,ethereum,nothing</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>blockchain,cyber-physical system,security</t>
+          <t>cyber-physical system,nothing</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>blockchain,risk assessment,threat,security</t>
+          <t>threat,nothing,risk assessment</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>performance,blockchain,fork,security</t>
+          <t>performance,fork,nothing</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>mine pool selection,blockchain,evolutionary game theory,block withhold attack,proof-of-work,replicator dynamic</t>
+          <t>replicator dynamic,evolutionary game theory,PoW,mine pool selection,block withhold attack,nothing</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>protocol,triangle attack,trace analysis</t>
+          <t>trace analysis,triangle attack,protocol</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>blockchain,secure element,trust,security</t>
+          <t>trust,nothing,secure element</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,cryptocurrency,cybersecurity,privacy,security</t>
+          <t>cryptocurrency,cyber security,privacy,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>smart city,mobile healthcare,blockchain,privacy,security</t>
+          <t>mobile healthcare,privacy,smart city,nothing</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>industrial internet of thing privacy,industrial internet of thing security,privacy,security</t>
+          <t>industrial internet of thing privacy,industrial internet of thing security,privacy,nothing</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>blockchain,racs,secure element,security</t>
+          <t>secure element,racs,nothing</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>blockchain,security,51% attack</t>
+          <t>51% attack,nothing</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>malware,blockchain,cryptocurrency,phishing,social engineer,security</t>
+          <t>cryptocurrency,malware,social engineer,phishing,nothing</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>battlefield management system ,blockchain,defence application,logistics,cryptography,supply chain management,smart contract,immutability,network center operation,cyber security,consensus mechanism,distribute ledger technology,peer-to-peer network ,digital signature</t>
+          <t>battlefield management system ,cryptography,defence application,logistics,network center operation,peer-to-peer network ,contract,cyber security,immutability,consensus,supply chain,digital signature,nothing</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>distribute system,blockchain,verification,theorem prove,security</t>
+          <t>formal approach,distribute system,nothing,theorem prove</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>cloud compute,cloud,service,blockchain,security,law,governance,trust,distribute ledger technology</t>
+          <t>trust,cloud compute,cloud,service,governance,law,nothing</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>blockchain,cryptography,polynomial,security</t>
+          <t>polynomial,cryptography,nothing</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>malicious attack,genetic algorithm,fault tolerant,sharding,blockchain,trust</t>
+          <t>fault tolerant,trust,malicious attack,genetic algorithm,nothing,sharding</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>blockchain,topologicalanalysis,security assurance,smart contract,logic risk location</t>
+          <t>contract,logic risk location,security assurance,topologicalanalysis,nothing</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>collaborative intrusion detection,insider threat,blockchain,trust management,security</t>
+          <t>trust management,collaborative intrusion detection,nothing,insider threat</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>privacy solution,security solution,privacy issue,blockchain,consensus algorithm,technology,security issue</t>
+          <t>security solution,security issue,consensus,privacy issue,technology,privacy solution,nothing</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>wireless security,blockchain,cyber security,iot</t>
+          <t>cyber security,iot,nothing,wireless security</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>timestamp,blockchain,decentralize,information security,distribute</t>
+          <t>decentralize,timestamp,nothing,information security,distribute</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>dapps,blockchain,security vulnerability,fuzz test,ethereum,architecture,smart contract</t>
+          <t>contract,DApp,fuzz test,ethereum,nothing</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>blockchain,time-based zero knowledge proof of knowledge,privacy,industrial internet of thing,security</t>
+          <t>time-based zero knowledge proof of knowledge,nothing,privacy,industrial internet of thing</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>scalability,test,blockchain,consensus,smart contract,security</t>
+          <t>contract,consensus,scalability,test,nothing</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>blockchain,game,architecture,security</t>
+          <t>game,nothing</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>blockchain,proof of stake,attack</t>
+          <t>attack,PoS,nothing</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>channel,energy transaction,network,information security,microgrid</t>
+          <t>microgrid,channel,information security,energy transaction,network</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>blockchain,security,internet of thing</t>
+          <t>IoT,nothing</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>blockchain,challenge,future scope,architecture</t>
+          <t>challenge,nothing,future scope</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>integrity,security architecture,internal attack,blockchain,maker-checker,financial system,cybersecurity</t>
+          <t>integrity,internal attack,maker-checker,cyber security,security architecture,financial system,nothing</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>authentication,iot,blockchain,privacy,security</t>
+          <t>iot,privacy,nothing,authentication</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>blockchain,decompilation,ethereum,program analysis,security</t>
+          <t>decompilation,program analysis,nothing,ethereum</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>vulnerability,attack technique,ethereum,smart contract,dapp</t>
+          <t>contract,DApp,ethereum,nothing,attack technique</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>carrier sense multiple access/collision avoidance ,direct acyclic graph,network,double-spending attack,industrial internet of thing,consensus</t>
+          <t>direct acyclic graph,industrial internet of thing,carrier sense multiple access/collision avoidance ,double-spending attack,consensus,network</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>cybersecurity framework,cyber risk mitigation,cybersecurity,cybersecurity vulnerability assessment,criterion rank</t>
+          <t>cybersecurity framework,cyber security,cyber risk mitigation,criterion rank,cybersecurity vulnerability assessment</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>sharding,hypergeometric distribution,blockchain,security analysis,failure probability</t>
+          <t>security analysis,hypergeometric distribution,failure probability,nothing,sharding</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>service,blockchain,pki system,archiecture,data privacy,access control list</t>
+          <t>pki system,archiecture,access control list,data privacy,service,nothing</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>51 attack,blockchain,crypto currency,share scheme</t>
+          <t>cryptocurrency,51% attack,nothing,share scheme</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,internet-of-things ,security</t>
+          <t>distribute ledger,internet-of-things ,nothing</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>blockchain,cyberterrorism,cryptocurrencies,cybercrime,security</t>
+          <t>cryptocurrency,cybercrime,nothing,cyberterrorism</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>mtc confirmation mechanism,blockchain,fork attack,dynamic difficulty factor</t>
+          <t>mtc confirmation mechanism,dynamic difficulty factor,fork attack,nothing</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>iot security,blockchain,privacy,internet of thing</t>
+          <t>IoT,iot security,privacy,nothing</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>blockchain,challenge,adoption</t>
+          <t>challenge,nothing,adoption</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>goal,blockchain,organisation.,information security,control</t>
+          <t>goal,control,information security,organisation.,nothing</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>,adaptive,internet of thing ,distribute,security</t>
+          <t>,distribute,adaptive,internet of thing ,nothing</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>complexity,blockchain,measurement,control,security</t>
+          <t>control,complexity,measurement,nothing</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>security threat,blockchain,application,information technology,privacy,security</t>
+          <t>application,information technology,privacy,threat,nothing</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>iot,attack,block,shv-secured hash value,blockchain,digital signature,hash function,tx,tc,cryptography,security</t>
+          <t>cryptography,shv-secured hash value,block,iot,attack,hash,digital signature,nothing</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>blockchain,risk management,stablecoin,defi</t>
+          <t>defi,stablecoin,risk management,nothing</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>blockchain,software lifecycle,ethereum,information security,software engineer,smart contract</t>
+          <t>contract,information security,software lifecycle,ethereum,software engineer,nothing</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>vulnerability detection,static analysis,blockchain,smart contract,solidity</t>
+          <t>nothing,contract,vulnerability detection,solidity,static analysis</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>authentication,bitcoin,cryptocurrency,wallet,security</t>
+          <t>cryptocurrency,wallet,authentication,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>vulnerability,fuzz test,smart contract,machine learn</t>
+          <t>DL/ML,fuzz test,nothing,contract</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>blockchain,mine,proof-of-work,double-spend attack,security</t>
+          <t>mine,double-spend attack,PoW,nothing</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>,blockchain,iota,cryptocurrency,security exploitation,replay attack</t>
+          <t>,cryptocurrency,replay attack,IoTa,security exploitation,nothing</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>vulnerability,blockchain,fuzzer,ethereum,test oracle,smart contract,fuzzing</t>
+          <t>fuzzing,contract,fuzzer,ethereum,test oracle,nothing</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>vulnerability,fasle positive,ethereum,smart contract,solidity</t>
+          <t>nothing,contract,ethereum,solidity,fasle positive</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>eclipse-attack,peer-to-peer,security,ethereum</t>
+          <t>eclipse-attack,P2P,nothing,ethereum</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>transaction,prototype,internet of thing,blockchain,ethereum,fpga,protocol,embed system,security</t>
+          <t>prototype,ethereum,embed system,fpga,IoT,transaction,nothing,protocol</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t xml:space="preserve">sybil attack,real-time consensus,blockchain,internet of thing ,wireless network,byzantine fault-tolerant </t>
+          <t>byzantine fault-tolerant ,sybil attack,wireless network,real-time consensus,internet of thing ,nothing</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ai,iot,blockchain,distribute ledger,cyber security,emerge technology,risk,cyber risk</t>
+          <t>AI,emerge technology,risk,distribute ledger,cyber risk,cyber security,iot,nothing</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>blockchain,double spend attack,bitcoin,consensus protocol</t>
+          <t>consensus,double spending,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>security.,blockchain,wban,eh</t>
+          <t>wban,nothing</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>internet of thing,blockchain,cyber attack,peer-to-peer,hash,immutable,cryptography,smart contract,proof of work,security</t>
+          <t>cryptography,contract,P2P,IoT,PoW,immutable,hash,nothing,cyber attack</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>openssl,embed security,invalid curve attack,fault attack,supersingular curve,singular curve</t>
+          <t>embed security,singular curve,invalid curve attack,fault attack,openssl,supersingular curve</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>distributed-ledger,blockchain;-privacy,consensus,hardware,security</t>
+          <t>distributed-ledger,blockchain;-privacy,consensus,hardware,nothing</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>privacy,distribute ledger technology ,internet of thing ,security</t>
+          <t xml:space="preserve">internet of thing ,nothing,privacy,distribute ledger technology </t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>decentralization,block chain ,cryptocurrency,smart contract ,peer-to-peer ,consensus,cryptography,security</t>
+          <t>cryptography,cryptocurrency,decentralization,consensus,smart contract ,peer-to-peer ,block chain ,nothing</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>blockchain,consensus mechanism,censorship attack,protocol security</t>
+          <t>protocol security,consensus,censorship attack,nothing</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>program analysis,blockchain,smart contract,security smell</t>
+          <t>security smell,program analysis,nothing,contract</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>security,smart contract,formal verification,ethereum</t>
+          <t>ethereum,formal approach,nothing,contract</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>blockchains,attack,cryptocurrency,double spend,ethereum,smart contract,cyber security,game theory,interoperable-blockchains</t>
+          <t>cryptocurrency,contract,interoperable-blockchains,cyber security,attack,double spending,ethereum,game theory,nothing</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>ssdf attack,block chain,spectrum sense,consensus algorithm,double threshold energy detection</t>
+          <t>spectrum sense,consensus,double threshold energy detection,ssdf attack,nothing</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>smartphone application,owasp mobile,cryptocurrency,security</t>
+          <t>cryptocurrency,owasp mobile,smartphone application,nothing</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>blockchain,verification,formal method,systematic review,smart contract</t>
+          <t>formal approach,nothing,contract</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>,algor,attack,iota,ripple,99-00,hash,trust,security,cryptography,smart contract,hyperledger,bitcoin,ethereum,consensus,tangle,vulnerability,blockchain,00-01</t>
+          <t>,ripple,cryptography,trust,contract,hyperledger,tangle,00-01,IoTa,consensus,algor,bitcoin,attack,ethereum,hash,nothing</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>security.,decentralization,blockchain,cryptocurrency,consensus algorithm,distribute ledger,smart contract,digital currency</t>
+          <t>cryptocurrency,contract,decentralization,distribute ledger,consensus,digital currency,nothing</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>blockchain,audit log,distribute system</t>
+          <t>distribute system,audit log,nothing</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>vulnerability,protection,blockchain,smart contract,input filter</t>
+          <t>protection,input filter,nothing,contract</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>usability,security,bitcoin,user perception,credit,trade-off,debit card</t>
+          <t>usability,bitcoin,trade-off,credit,debit card,user perception,nothing</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>bitcoin wallet forensics,bitcoin wallet security,bitcoins,cryptocurrency,cryptocurrency wallet,multibit hd,electrum</t>
+          <t>cryptocurrency,multibit hd,bitcoin wallet security,cryptocurrency wallet,bitcoins,electrum,bitcoin wallet forensics</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>practical application,risk management,internet of thing,financial service,technology,smart contract</t>
+          <t>contract,IoT,technology,risk management,practical application,financial service</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>consensus mechanism,network,sybil attack</t>
+          <t>sybil attack,consensus,network</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>payment,blockchain,cyberattacks,network,peer-to-peer system,ict,distribute ledger,cybersecurity,digital transaction,swift,financial service,bank</t>
+          <t>swift,ict,distribute ledger,peer-to-peer system,cyber security,financial service,digital transaction,payment,network,bank,nothing,cyber attack</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>bitcoin,decentralize peer-to-peer,smart contract,pow,cryptocurrencies,technology,public ledger,security</t>
+          <t>cryptocurrency,public ledger,contract,technology,PoW,bitcoin,decentralize peer-to-peer,nothing</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>security protocol,decentralize autonomous organization,seconomics vulnerability,fintech</t>
+          <t>security protocol,seconomics vulnerability,fintech,decentralize autonomous organization</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>blockchain,ethereum,smart contract,security</t>
+          <t>ethereum,nothing,contract</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>blockchain,internet of thing,smart contract,cyber physical system</t>
+          <t>IoT,cyber physical system,nothing,contract</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>risk engineer,blockchain,ontology,integrate risk analysis,reason</t>
+          <t>reason,ontology,risk engineer,integrate risk analysis,nothing</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,vulnerability detection</t>
+          <t>vulnerability detection,nothing,contract</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>delay,blockchain,bitcoin,r,om oracle</t>
+          <t>om oracle,delay,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>botnets,blockchain,bitcoin,c&amp;c,security</t>
+          <t>botnets,bitcoin,nothing,c&amp;c</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -11635,7 +11635,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>monitor system,blockchain</t>
+          <t>monitor system,nothing</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>attack,hyperledger fabric,blockchain,mitigation,security</t>
+          <t>mitigation,attack,nothing,hyperledger fabric</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,hash function,pay-to-public-key-hash  protocol,trojan message attack</t>
+          <t>pay-to-public-key-hash  protocol,bitcoin,trojan message attack,hash,nothing</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>bitcoin,lattice,ecdsa,crypto,hide number problem</t>
+          <t>lattice,hide number problem,bitcoin,ecdsa,crypto</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -11872,7 +11872,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,firstcoin,double spend,51% attack,proof-of-work</t>
+          <t>cryptocurrency,51% attack,PoW,double spending,firstcoin,nothing</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>blockchain,offline channel,collusion,banzhaf index</t>
+          <t>offline channel,collusion,banzhaf index,nothing</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>blockchain,honest miner,metal node,smart contract,subchain</t>
+          <t>subchain,honest miner,metal node,contract,nothing</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>automatic code generation,security,ethereum,design pattern,finite state machine,smart contract,solidity</t>
+          <t>design pattern,contract,finite state machine,ethereum,solidity,automatic code generation,nothing</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>integrity,secure log,blockchain,distribute immutabilization,trust</t>
+          <t>trust,integrity,distribute immutabilization,secure log,nothing</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -12154,7 +12154,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>dyck path,91a60,blockchain,bitcoin,ethereum,selfish mine,r,om walk,68m01,proof-of-work,60g40,catalan number</t>
+          <t>catalan number,om walk,PoW,bitcoin,ethereum,mine,dyck path,nothing</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>client puzzle,denial of service resistance,bitcoin,distribute computation,proof of work</t>
+          <t>distribute computation,denial of service resistance,PoW,bitcoin,client puzzle</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>merkle tree,blockchain,gpu process,high performance compute,efficient storage,consensus validation</t>
+          <t>gpu process,efficient storage,merkle tree,consensus validation,high performance compute,nothing</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,cryptocurrency,information security,privacy,threshold cryptography</t>
+          <t>cryptocurrency,threshold cryptography,information security,bitcoin,privacy,nothing</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>selfish mine,incentive compatibility,bitcoin</t>
+          <t>mine,bitcoin,incentive compatibility</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,reentrant attack,solidity</t>
+          <t>reentrant attack,solidity,nothing,contract</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>softfork transition scheme,blockchain,compromise hash,proof of work</t>
+          <t>softfork transition scheme,compromise hash,PoW,nothing</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>evaluation mechanism,rscoin,cryptocurrency,scalability</t>
+          <t>cryptocurrency,rscoin,evaluation mechanism,scalability</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>correlate equilibrium,large deviation theory,game theory,block synchronization</t>
+          <t>correlate equilibrium,game theory,large deviation theory,block synchronization</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>blockchain,decentralization,data protection</t>
+          <t>decentralization,data protection,nothing</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>proof of location,spatio-temporal consensus</t>
+          <t>spatio-temporal consensus,proof of location</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>trend in bitcoin security breach,bitcoin,bitcoin security countermeasure</t>
+          <t>bitcoin security countermeasure,bitcoin,trend in bitcoin security breach</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -12720,7 +12720,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>fork attack,verification,light node,binary tree,challenge mechanism</t>
+          <t>formal approach,challenge mechanism,binary tree,fork attack,light node</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>hyperledger fabric,invalid ticket,ticket owner,smart contract,concert organizer</t>
+          <t>hyperledger fabric,concert organizer,contract,invalid ticket,ticket owner</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>blockchain,contrast of attack,selfish mine,security detection model,51% attack</t>
+          <t>51% attack,contrast of attack,security detection model,mine,nothing</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>blockchain,update,ledger</t>
+          <t>update,ledger,nothing</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>blockchain,access control encryption,data privacy,user privacy,decentralize sanitizers</t>
+          <t>decentralize sanitizers,user privacy,data privacy,access control encryption,nothing</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>blockchain,privacy,discretionary access control</t>
+          <t>discretionary access control,privacy,nothing</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>gas limit a a kill criterion,vulnerability injection,ethereum,mutation test,modifier issue,smart contract,solidity</t>
+          <t>gas limit a a kill criterion,contract,vulnerability injection,mutation test,modifier issue,ethereum,solidity</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -13101,7 +13101,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>human cognition,cyberattack,cybersecurity,wannacry ransomware,cyberintrusions,cybercrime</t>
+          <t>wannacry ransomware,cyberintrusions,cyber attack,cyber security,cybercrime,human cognition</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>offline player,bitcoin,dishonest majority,sleepy model,security</t>
+          <t>sleepy model,offline player,bitcoin,dishonest majority,nothing</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -13195,7 +13195,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>elliptic curve,lattice,bitcoin,learn with error</t>
+          <t>learn with error,lattice,bitcoin,elliptic curve</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>multi-signature aggregation,scalability,byzantine fault tolerance,responsiveness,blockchains</t>
+          <t>BFT,responsiveness,scalability,digital signature,nothing</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>blockchain,mine pool,game theory,ddos</t>
+          <t>mine,ddos,game theory,nothing</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>selfish mine,blockchain,proof of work,cryptocurrency</t>
+          <t>mine,cryptocurrency,PoW,nothing</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>blockchain,garch,intraday financial risk,c58,graph analysis,cryptocurrencies,g18,c63</t>
+          <t>cryptocurrency,garch,intraday financial risk,graph analysis,nothing</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
